--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpala\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F966A1-E2CD-45A8-8C6D-8846343A13DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA9073-069E-4D5F-913E-1A95C6C3C2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="1920" yWindow="555" windowWidth="26160" windowHeight="11325" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$56</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>습도 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미세먼지 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수도 사용량 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,14 +200,6 @@
   </si>
   <si>
     <t>온도 경고등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>습도 경고등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미세먼지 경고등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -415,78 +399,10 @@
     <t>수동btn</t>
   </si>
   <si>
-    <t>cpu 사용량 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거요금 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크 사용량 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수도 사용량 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현제 시간 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실내미세먼지 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실내 미세먼지 경고등 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실내 습도 경고등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실내 습도 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실외 미세먼지 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실외 온도 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실외 습도 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 연결 현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실내 온도 경고등 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실내 온도 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현제 전기 사용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 수도 총 사용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 사용료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>습도에 따른 가습기 자동제어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,23 +431,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수도계량기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기계량기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ram 사용량 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 날짜 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 수도 요금 합계</t>
+    <t>cpu 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ram 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거요금 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 날짜 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 미세먼지 경고등 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 습도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현제 시간 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실외 미세먼지 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실외 습도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실외 온도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 온도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 미세먼지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내미세먼지 경고등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 습도 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내미세먼지 표시 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 습도 경고등 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 연결 현황 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 온도 경고등 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현제 전기 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 수도 총 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 수도 요금 합계 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 사용료 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수질 현황판 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수질 현황 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15도에서는 70%</t>
+  </si>
+  <si>
+    <t>18~20도에서는 60%</t>
+  </si>
+  <si>
+    <t> 21~23도에서는 50%</t>
+  </si>
+  <si>
+    <t>온습도 최적 온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유량 센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP2Y10 14AUOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +616,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,8 +638,13 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -697,13 +735,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,20 +835,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1111,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1126,10 +1183,12 @@
     <col min="5" max="5" width="43.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.45" customHeight="1">
+    <row r="1" spans="1:9" ht="17.45" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1199,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25">
+    <row r="2" spans="1:9" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1162,120 +1221,132 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
-        <v>28</v>
+      <c r="I2" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="29" t="s">
-        <v>94</v>
+      <c r="C7" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="27" t="s">
-        <v>61</v>
+      <c r="C10" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1283,38 +1354,38 @@
         <v>15</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1322,33 +1393,33 @@
         <v>16</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="16" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="18" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1358,10 +1429,10 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1370,11 +1441,11 @@
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="16" t="s">
-        <v>45</v>
+      <c r="D18" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1383,11 +1454,11 @@
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="18" t="s">
-        <v>18</v>
+      <c r="D19" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1396,11 +1467,11 @@
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="16" t="s">
-        <v>35</v>
+      <c r="D20" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1410,10 +1481,10 @@
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1423,10 +1494,10 @@
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1436,10 +1507,10 @@
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1449,10 +1520,10 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1462,10 +1533,10 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1474,37 +1545,37 @@
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1514,81 +1585,81 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>49</v>
-      </c>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="33">
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>55</v>
+      <c r="D34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -1598,10 +1669,10 @@
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -1611,10 +1682,10 @@
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -1622,12 +1693,12 @@
     <row r="37" spans="1:7">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -1635,30 +1706,30 @@
     <row r="38" spans="1:7">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
-      <c r="C38" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="C39" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -1667,13 +1738,13 @@
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>120</v>
+        <v>11</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -1682,54 +1753,58 @@
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="24" t="s">
+      <c r="E43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="D44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="11"/>
@@ -1740,82 +1815,82 @@
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>92</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24" t="s">
-        <v>83</v>
+      <c r="A48" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="24" t="s">
-        <v>59</v>
+      <c r="B49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
+      <c r="C50" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="D50" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -1823,120 +1898,131 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>90</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="33">
+    <row r="52" spans="1:7">
       <c r="A52" s="25"/>
-      <c r="B52" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>69</v>
+      <c r="B52" s="26"/>
+      <c r="C52" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>87</v>
+        <v>25</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="33">
       <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="D53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="25"/>
-      <c r="B54" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="D55" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>93</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G55" xr:uid="{BA68615C-3ACA-45FC-A922-76D7ADDD03CE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G56">
-      <sortCondition descending="1" ref="A2:A55"/>
+  <autoFilter ref="A2:G56" xr:uid="{BA68615C-3ACA-45FC-A922-76D7ADDD03CE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G57">
+      <sortCondition descending="1" ref="A2:A56"/>
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="A3:A30"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B3:B30"/>
-    <mergeCell ref="C10:C30"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B3:B31"/>
+    <mergeCell ref="C10:C31"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpala\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA9073-069E-4D5F-913E-1A95C6C3C2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB276EE1-5921-4734-9934-8412093ABE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="555" windowWidth="26160" windowHeight="11325" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -544,19 +544,196 @@
     <t> 21~23도에서는 50%</t>
   </si>
   <si>
-    <t>온습도 최적 온도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유량 센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전류센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GP2Y10 14AUOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/roboholic84/220540393392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유량 센서(TF-S201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류센서(ACS712 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://makernambo.com/75</t>
+  </si>
+  <si>
+    <t>참고사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/dataset/3072596/openapi.do</t>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/dataset/15034880/fileData.do</t>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/dataset/15031940/fileData.do</t>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/dataset/15039291/fileData.do</t>
+  </si>
+  <si>
+    <r>
+      <t>미세먼지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PM10; Particulate Matter Less than 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>㎛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>입자의 크기가 10㎛ 이하인 먼지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>초미세먼지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PM2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; Particulate Matter Less than 2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>㎛) : 입자의 크기가 2.5㎛ 이하인 먼지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>총입자상물질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(TSP; Total suspended Particles) : 입자의 크기가 50㎛ 이하의 먼지 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>에어로솔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(aerosol) 대기중 떠도는 미세한 고체 입자 또는 액체방울</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>황사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (黃沙/黃砂) : 사막에 있는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>모래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>와 먼지가 상승하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>편서풍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>을 타고 멀리 날아가 서서히 가라앉는 현상</t>
+    </r>
+  </si>
+  <si>
+    <t>https://data.kma.go.kr/data/rmt/rmtList.do?code=420&amp;pgmNo=572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에어로졸? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +801,61 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="AppleSDGothicNeo-Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="AppleSDGothicNeo-Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +871,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -745,15 +987,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +1071,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,28 +1086,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1221,18 +1485,18 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>129</v>
+      <c r="I2" s="25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -1243,14 +1507,14 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>70</v>
       </c>
@@ -1259,14 +1523,14 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="16" t="s">
         <v>69</v>
       </c>
@@ -1275,14 +1539,14 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="16" t="s">
         <v>75</v>
       </c>
@@ -1293,9 +1557,9 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -1308,20 +1572,23 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="16" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="5"/>
+      <c r="I8" s="38" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="16" t="s">
         <v>74</v>
       </c>
@@ -1330,11 +1597,12 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="29" t="s">
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="42.75">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -1345,11 +1613,14 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="I10" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
@@ -1358,11 +1629,14 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="I11" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.75">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="16" t="s">
         <v>36</v>
       </c>
@@ -1371,11 +1645,14 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
+      <c r="I12" s="36" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
@@ -1384,11 +1661,12 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1397,11 +1675,14 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
+      <c r="I14" s="36" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="16" t="s">
         <v>114</v>
       </c>
@@ -1410,11 +1691,12 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" ht="42.75">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="18" t="s">
         <v>113</v>
       </c>
@@ -1423,11 +1705,14 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="I16" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="18" t="s">
         <v>18</v>
       </c>
@@ -1437,10 +1722,10 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
         <v>124</v>
       </c>
@@ -1450,10 +1735,10 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="16" t="s">
         <v>92</v>
       </c>
@@ -1463,10 +1748,10 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
         <v>115</v>
       </c>
@@ -1476,10 +1761,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="16" t="s">
         <v>33</v>
       </c>
@@ -1489,10 +1774,10 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
@@ -1502,10 +1787,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="16" t="s">
         <v>40</v>
       </c>
@@ -1515,10 +1800,10 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1528,10 +1813,10 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="16" t="s">
         <v>43</v>
       </c>
@@ -1541,10 +1826,10 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
@@ -1554,10 +1839,10 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1567,10 +1852,10 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
@@ -1580,10 +1865,10 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="16" t="s">
         <v>34</v>
       </c>
@@ -1593,10 +1878,10 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+    <row r="30" spans="1:9">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="16" t="s">
         <v>31</v>
       </c>
@@ -1606,10 +1891,10 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="16" t="s">
         <v>35</v>
       </c>
@@ -1619,14 +1904,14 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -1637,11 +1922,14 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="I32" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1650,11 +1938,14 @@
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="I33" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="16" t="s">
         <v>37</v>
       </c>
@@ -1663,11 +1954,14 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="I34" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="19" t="s">
         <v>46</v>
       </c>
@@ -1677,10 +1971,10 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="19" t="s">
         <v>47</v>
       </c>
@@ -1689,11 +1983,14 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="I36" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="19" t="s">
         <v>48</v>
       </c>
@@ -1702,11 +1999,14 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
+      <c r="I37" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="19" t="s">
         <v>49</v>
       </c>
@@ -1715,11 +2015,14 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="27" t="s">
+      <c r="I38" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="32" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1729,14 +2032,14 @@
         <v>50</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
@@ -1744,14 +2047,17 @@
         <v>50</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="I40" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
@@ -1763,10 +2069,10 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+    <row r="42" spans="1:9">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1778,10 +2084,10 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+    <row r="43" spans="1:9">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1789,18 +2095,21 @@
         <v>50</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="24" t="s">
+      <c r="I43" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -1810,10 +2119,10 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+    <row r="45" spans="1:9">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
@@ -1821,10 +2130,10 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+    <row r="46" spans="1:9">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
@@ -1832,10 +2141,10 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
@@ -1843,8 +2152,8 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -1865,8 +2174,8 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -1884,9 +2193,9 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="24" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -1897,9 +2206,9 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="16" t="s">
         <v>24</v>
       </c>
@@ -1908,8 +2217,8 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="11" t="s">
         <v>67</v>
       </c>
@@ -1925,11 +2234,11 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="33">
-      <c r="A53" s="25"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="16" t="s">
@@ -1944,9 +2253,9 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="16" t="s">
         <v>28</v>
       </c>
@@ -1959,11 +2268,11 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="25"/>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="16" t="s">
@@ -1974,9 +2283,9 @@
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="16" t="s">
         <v>61</v>
       </c>
@@ -1985,9 +2294,9 @@
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="16" t="s">
         <v>62</v>
       </c>
@@ -2004,6 +2313,14 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -2015,17 +2332,19 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I40" r:id="rId1" xr:uid="{47C71350-C25A-42E2-92DE-F5678D98940B}"/>
+    <hyperlink ref="I43" r:id="rId2" xr:uid="{A48755A3-F6F9-489F-BF70-F73244A79983}"/>
+    <hyperlink ref="I33" r:id="rId3" xr:uid="{80D16523-BE05-4D7B-86FF-B2679F1C8849}"/>
+    <hyperlink ref="I32" r:id="rId4" xr:uid="{1ED56F14-F9CF-4455-8D6B-AFE0F0613BE3}"/>
+    <hyperlink ref="I34" r:id="rId5" xr:uid="{5BF59BFB-A99D-417B-9C99-390AD5E9B2A9}"/>
+    <hyperlink ref="I38" r:id="rId6" xr:uid="{813765F1-671A-4647-9D1D-6D8E8E0CA1C4}"/>
+    <hyperlink ref="I36" r:id="rId7" xr:uid="{85C5773C-09B9-48C7-AF00-A4F512492105}"/>
+    <hyperlink ref="I37" r:id="rId8" xr:uid="{8D172767-32D0-46B7-BC64-43C77B998662}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGSS2KMS\Documents\GitHub\First-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB276EE1-5921-4734-9934-8412093ABE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FC917-917C-46CB-8F08-AE082A148D75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="555" windowWidth="26160" windowHeight="11325" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +352,6 @@
   </si>
   <si>
     <t>- 실시간 데이터를 MongoDB에 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,10 +365,6 @@
   </si>
   <si>
     <t>- 사용자에게 원하는 서비스 제공을 위함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA Spring MVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,6 +722,58 @@
   </si>
   <si>
     <t xml:space="preserve">에어로졸? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On/Off 버튼없이 전등 자동 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- MongoDB shell version v3.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 소프트웨어 가상화로 만들어 개발 환경을 제공함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Docker 2.2.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- linux 운영체제로 이루어져 개발 및 네트워크 서비스를 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Ubuntu 18.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA Spring MVC(Tool Suite 4 = Version 5.2.5 RELEASE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart.js v3.0.0-alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactJS v16.13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git version 2.26.0.windows.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개발 Project를 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSCode versionn = 1.44.2 (user setup)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +895,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,9 +1063,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,36 +1090,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1095,26 +1141,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1434,36 +1477,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1485,30 +1528,30 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>134</v>
+      <c r="I2" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="32" t="s">
-        <v>26</v>
+      <c r="A3" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="24" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1516,15 +1559,15 @@
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="24" t="s">
-        <v>127</v>
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1532,15 +1575,15 @@
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="24" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1548,41 +1591,43 @@
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="38" t="s">
-        <v>145</v>
+      <c r="D8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="I8" s="25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1590,63 +1635,63 @@
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>94</v>
+        <v>73</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="42.75">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="41.4">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42.75">
+      <c r="E10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="41.4">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42.75">
+      <c r="E11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="41.4">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="36" t="s">
-        <v>141</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1654,29 +1699,29 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="27.6">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>105</v>
+      <c r="E14" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="I14" s="36" t="s">
-        <v>142</v>
+      <c r="I14" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1684,160 +1729,160 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" ht="42.75">
+        <v>111</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="41.4">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="36" t="s">
-        <v>143</v>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="27"/>
@@ -1847,7 +1892,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1859,71 +1904,71 @@
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="I32" s="33" t="s">
-        <v>136</v>
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="I32" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1933,13 +1978,13 @@
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="I33" s="33" t="s">
-        <v>135</v>
+      <c r="E33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="I33" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1947,92 +1992,92 @@
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="33" t="s">
-        <v>137</v>
+        <v>36</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="I34" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="33" t="s">
-        <v>144</v>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="I36" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="I37" s="33" t="s">
-        <v>144</v>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="I37" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="33" t="s">
-        <v>138</v>
+      <c r="D38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
-      <c r="C39" s="32" t="s">
-        <v>44</v>
+      <c r="C39" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>129</v>
+      <c r="E39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -2043,15 +2088,15 @@
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>50</v>
+      <c r="E40" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="I40" s="33" t="s">
-        <v>130</v>
+      <c r="I40" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2062,10 +2107,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G41" s="5"/>
     </row>
@@ -2077,10 +2122,10 @@
         <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -2091,33 +2136,33 @@
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>50</v>
+      <c r="E43" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="I43" s="33" t="s">
-        <v>133</v>
+      <c r="I43" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="27"/>
@@ -2126,9 +2171,9 @@
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="27"/>
@@ -2137,9 +2182,9 @@
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="28"/>
@@ -2148,163 +2193,177 @@
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="27"/>
       <c r="B49" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="D50" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="D51" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="33">
+      <c r="C52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" ht="34.799999999999997">
       <c r="A53" s="27"/>
       <c r="B53" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="11"/>
+      <c r="D54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="27"/>
       <c r="B55" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
-      <c r="D56" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="D56" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
-      <c r="D57" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="D57" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G56" xr:uid="{BA68615C-3ACA-45FC-A922-76D7ADDD03CE}">
@@ -2313,14 +2372,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -2332,6 +2383,14 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGSS2KMS\Documents\GitHub\First-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FC917-917C-46CB-8F08-AE082A148D75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779415B-EEDD-485B-AD9D-B16C248C8BE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1123,6 +1123,24 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,32 +1150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1533,13 +1533,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="32" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -1555,9 +1555,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
         <v>69</v>
       </c>
@@ -1571,9 +1571,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="16" t="s">
         <v>68</v>
       </c>
@@ -1587,9 +1587,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="16" t="s">
         <v>74</v>
       </c>
@@ -1600,9 +1600,9 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -1615,25 +1615,25 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="32" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="I8" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
         <v>73</v>
       </c>
@@ -1645,9 +1645,9 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="41.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1663,9 +1663,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="41.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1679,9 +1679,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="41.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
@@ -1695,9 +1695,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="16" t="s">
         <v>31</v>
       </c>
@@ -1709,9 +1709,9 @@
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="27.6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1725,9 +1725,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="16" t="s">
         <v>111</v>
       </c>
@@ -1739,9 +1739,9 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="41.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="16" t="s">
         <v>110</v>
       </c>
@@ -1755,9 +1755,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
@@ -1768,9 +1768,9 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="16" t="s">
         <v>121</v>
       </c>
@@ -1781,9 +1781,9 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="16" t="s">
         <v>89</v>
       </c>
@@ -1794,9 +1794,9 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="16" t="s">
         <v>112</v>
       </c>
@@ -1807,9 +1807,9 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="16" t="s">
         <v>32</v>
       </c>
@@ -1820,9 +1820,9 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
@@ -1833,9 +1833,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="16" t="s">
         <v>39</v>
       </c>
@@ -1846,9 +1846,9 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="16" t="s">
         <v>38</v>
       </c>
@@ -1859,9 +1859,9 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="16" t="s">
         <v>42</v>
       </c>
@@ -1872,9 +1872,9 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="16" t="s">
         <v>41</v>
       </c>
@@ -1885,9 +1885,9 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1898,9 +1898,9 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
@@ -1911,9 +1911,9 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="16" t="s">
         <v>33</v>
       </c>
@@ -1924,9 +1924,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="16" t="s">
         <v>30</v>
       </c>
@@ -1937,9 +1937,9 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="16" t="s">
         <v>34</v>
       </c>
@@ -1950,13 +1950,13 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="32" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -1972,9 +1972,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1988,9 +1988,9 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="16" t="s">
         <v>36</v>
       </c>
@@ -2004,9 +2004,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="3" t="s">
         <v>45</v>
       </c>
@@ -2017,9 +2017,9 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="3" t="s">
         <v>46</v>
       </c>
@@ -2033,9 +2033,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
@@ -2049,9 +2049,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="3" t="s">
         <v>48</v>
       </c>
@@ -2065,9 +2065,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2082,9 +2082,9 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
@@ -2100,9 +2100,9 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
@@ -2115,9 +2115,9 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2130,9 +2130,9 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2148,13 +2148,13 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -2165,9 +2165,9 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
@@ -2176,9 +2176,9 @@
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
@@ -2187,9 +2187,9 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -2219,148 +2219,148 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="29" t="s">
         <v>144</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26" t="s">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="29" t="s">
         <v>146</v>
       </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="32" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="29" t="s">
         <v>149</v>
       </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="30" t="s">
         <v>150</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="34.799999999999997">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="30" t="s">
         <v>151</v>
       </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="32" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="30" t="s">
         <v>152</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="30" t="s">
         <v>153</v>
       </c>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="32" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="36"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="32" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="30" t="s">
         <v>155</v>
       </c>
       <c r="G57" s="6"/>
@@ -2372,6 +2372,14 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -2383,14 +2391,6 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGSS2KMS\Documents\GitHub\First-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB276EE1-5921-4734-9934-8412093ABE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779415B-EEDD-485B-AD9D-B16C248C8BE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="555" windowWidth="26160" windowHeight="11325" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +352,6 @@
   </si>
   <si>
     <t>- 실시간 데이터를 MongoDB에 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,10 +365,6 @@
   </si>
   <si>
     <t>- 사용자에게 원하는 서비스 제공을 위함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA Spring MVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,6 +722,58 @@
   </si>
   <si>
     <t xml:space="preserve">에어로졸? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On/Off 버튼없이 전등 자동 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- MongoDB shell version v3.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 소프트웨어 가상화로 만들어 개발 환경을 제공함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Docker 2.2.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- linux 운영체제로 이루어져 개발 및 네트워크 서비스를 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Ubuntu 18.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA Spring MVC(Tool Suite 4 = Version 5.2.5 RELEASE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart.js v3.0.0-alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactJS v16.13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git version 2.26.0.windows.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개발 Project를 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSCode versionn = 1.44.2 (user setup)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +895,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,9 +1063,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,36 +1090,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,9 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,24 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1434,36 +1477,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1485,826 +1528,842 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>134</v>
+      <c r="I2" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="I8" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="42.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="41.4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="41.4">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="41.4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42.75">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42.75">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="27.6">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>105</v>
+      <c r="E14" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="I14" s="36" t="s">
-        <v>142</v>
+      <c r="I14" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="41.4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" ht="42.75">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>45</v>
+      <c r="B32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="I32" s="33" t="s">
-        <v>136</v>
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="I32" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="I33" s="33" t="s">
+      <c r="E33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="I33" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="I34" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="I36" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="I37" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="I37" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="32" t="s">
-        <v>44</v>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>129</v>
+      <c r="E39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>50</v>
+      <c r="E40" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="I40" s="33" t="s">
-        <v>130</v>
+      <c r="I40" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>50</v>
+      <c r="E43" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="I43" s="33" t="s">
-        <v>133</v>
+      <c r="I43" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>58</v>
+      <c r="A44" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" ht="34.799999999999997">
+      <c r="A53" s="33"/>
+      <c r="B53" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="16" t="s">
+      <c r="D53" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="E54" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="11" t="s">
+      <c r="F54" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="33"/>
+      <c r="B55" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="D55" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="33">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="F57" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G56" xr:uid="{BA68615C-3ACA-45FC-A922-76D7ADDD03CE}">

--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최예만\workspace\gitrepo\First-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB276EE1-5921-4734-9934-8412093ABE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E3B74E-21C2-4772-BB44-43D8BFDBCB45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="555" windowWidth="26160" windowHeight="11325" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="168">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 사용량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,14 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +332,6 @@
   </si>
   <si>
     <t>고객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 실시간 데이터를 MongoDB에 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,14 +345,6 @@
   </si>
   <si>
     <t>- 사용자에게 원하는 서비스 제공을 위함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA Spring MVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 사용자 편리를 위한 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,6 +698,130 @@
   </si>
   <si>
     <t xml:space="preserve">에어로졸? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On/Off 버튼없이 전등 자동 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Docker 2.2.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- linux 운영체제로 이루어져 개발 및 네트워크 서비스를 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Ubuntu 18.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA Spring MVC(Tool Suite 4 = Version 5.2.5 RELEASE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart.js v3.0.0-alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactJS v16.13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git version 2.26.0.windows.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개발 Project를 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSCode versionn = 1.44.2 (user setup)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연한 자바 스크립트 차트 그리는 라이브러리 Charjs 를 이용하여 Doughnut &amp; pie 형 그래프로 각각의 사용량 을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사용자 편리를 위한 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 데이터를 MongoDB에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 가상화로 만들어 개발 환경을 제공함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB shell version v3.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가습기를 모터기로 대체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉난방을 모터기로 대체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전등을 led로 대체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표를 이용하여 과거요금을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표를 이용하여 전기, 수도 요금 합계를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표를 이용하여 현재요금을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chartjs를 이용하여 Line Chart형 그래프로 총 사용량을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에서 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 직접 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 로그인 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 로그아웃 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 회원가입 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 주소 기능 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +943,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +970,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,9 +1111,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,36 +1138,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1094,27 +1206,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1434,36 +1525,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1485,826 +1576,870 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>134</v>
+      <c r="I2" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="I8" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="41.4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="F10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="I10" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="41.4">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="I11" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="41.4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F12" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="I12" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="42.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42.75">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42.75">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="34.799999999999997">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="I14" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="41.4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" ht="42.75">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="I32" s="33" t="s">
-        <v>136</v>
+      <c r="E32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="I32" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="I33" s="33" t="s">
+      <c r="E33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="I33" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="I34" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="I36" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="19" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="I37" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="I37" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="33" t="s">
-        <v>138</v>
+      <c r="E38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="32" t="s">
-        <v>44</v>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>129</v>
+      <c r="E39" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>50</v>
+      <c r="E40" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="I40" s="33" t="s">
-        <v>130</v>
+      <c r="I40" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>99</v>
+      <c r="E41" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>99</v>
+      <c r="E42" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>50</v>
+      <c r="E43" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="I43" s="33" t="s">
-        <v>133</v>
+      <c r="I43" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>58</v>
+      <c r="A44" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" ht="34.799999999999997">
+      <c r="A53" s="33"/>
+      <c r="B53" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="F54" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="33"/>
+      <c r="B55" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="33">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="E56" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G56" xr:uid="{BA68615C-3ACA-45FC-A922-76D7ADDD03CE}">
@@ -2313,14 +2448,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -2332,6 +2459,14 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGSS2KMS\Documents\GitHub\First-Project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최예만\workspace\gitrepo\First-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779415B-EEDD-485B-AD9D-B16C248C8BE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE947DD-1AD2-4E30-80E5-9E3A25F1F543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="168">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 사용량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,14 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +332,6 @@
   </si>
   <si>
     <t>고객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 실시간 데이터를 MongoDB에 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,10 +345,6 @@
   </si>
   <si>
     <t>- 사용자에게 원하는 서비스 제공을 위함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 사용자 편리를 위한 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -729,14 +705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- MongoDB shell version v3.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 소프트웨어 가상화로 만들어 개발 환경을 제공함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- Docker 2.2.0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,6 +742,86 @@
   </si>
   <si>
     <t>VSCode versionn = 1.44.2 (user setup)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가습기를 모터기로 대체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전등을 led로 대체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉난방을 모터기로 대체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연한 자바 스크립트 차트 그리는 라이브러리 Charjs 를 이용하여 Doughnut &amp; pie 형 그래프로 각각의 사용량 을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표를 이용하여 과거요금을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chartjs를 이용하여 Line Chart형 그래프로 총 사용량을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표를 이용하여 전기, 수도 요금 합계를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표를 이용하여 현재요금을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에서 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 직접 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 로그아웃 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 로그인 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 주소 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 회원가입 기능 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사용자 편리를 위한 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 데이터를 MongoDB에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB shell version v3.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 가상화로 만들어 개발 환경을 제공함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,14 +1198,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1477,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1529,29 +1577,29 @@
         <v>7</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="I3" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1559,15 +1607,15 @@
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="I4" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1575,15 +1623,15 @@
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1591,10 +1639,10 @@
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1602,16 +1650,18 @@
     <row r="7" spans="1:9">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="36" t="s">
-        <v>87</v>
+      <c r="C7" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9">
@@ -1619,15 +1669,17 @@
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="27"/>
+        <v>137</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="G8" s="28"/>
       <c r="I8" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1635,31 +1687,35 @@
       <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="41.4">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="35" t="s">
-        <v>56</v>
+      <c r="C10" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="I10" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="41.4">
@@ -1670,12 +1726,14 @@
         <v>15</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="I11" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="41.4">
@@ -1683,15 +1741,17 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="I12" s="23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1699,16 +1759,16 @@
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" ht="27.6">
+    <row r="14" spans="1:9" ht="34.799999999999997">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -1716,12 +1776,14 @@
         <v>16</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="I14" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1729,10 +1791,10 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1743,15 +1805,15 @@
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1762,7 +1824,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1772,10 +1834,10 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1785,10 +1847,10 @@
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1798,10 +1860,10 @@
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1811,10 +1873,10 @@
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="16" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1824,10 +1886,10 @@
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1837,10 +1899,10 @@
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1850,10 +1912,10 @@
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1863,10 +1925,10 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1876,10 +1938,10 @@
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1892,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1905,7 +1967,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1915,12 +1977,14 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:9">
@@ -1931,9 +1995,11 @@
         <v>30</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:9">
@@ -1941,34 +2007,36 @@
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="I32" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1978,13 +2046,13 @@
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>50</v>
+      <c r="E33" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="I33" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1992,15 +2060,15 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="I34" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2008,10 +2076,10 @@
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -2021,15 +2089,15 @@
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="I36" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2037,15 +2105,15 @@
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="I37" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2053,31 +2121,31 @@
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
       <c r="D38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="I38" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
-      <c r="C39" s="37" t="s">
-        <v>43</v>
+      <c r="C39" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -2089,14 +2157,14 @@
         <v>11</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G40" s="5"/>
       <c r="I40" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2106,11 +2174,11 @@
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>49</v>
+      <c r="E41" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G41" s="5"/>
     </row>
@@ -2121,11 +2189,11 @@
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>49</v>
+      <c r="E42" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -2137,30 +2205,32 @@
         <v>12</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G43" s="5"/>
       <c r="I43" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
@@ -2171,7 +2241,9 @@
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
@@ -2182,7 +2254,9 @@
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
@@ -2193,47 +2267,49 @@
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="E47" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="G49" s="10"/>
     </row>
@@ -2241,16 +2317,16 @@
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G50" s="10"/>
     </row>
@@ -2259,13 +2335,13 @@
       <c r="B51" s="33"/>
       <c r="C51" s="34"/>
       <c r="D51" s="26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -2273,35 +2349,35 @@
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="34.799999999999997">
       <c r="A53" s="33"/>
       <c r="B53" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G53" s="10"/>
     </row>
@@ -2313,27 +2389,27 @@
         <v>27</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -2342,10 +2418,10 @@
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
       <c r="D56" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="6"/>
@@ -2355,13 +2431,13 @@
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -2372,14 +2448,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -2391,17 +2459,25 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I40" r:id="rId1" xr:uid="{47C71350-C25A-42E2-92DE-F5678D98940B}"/>
-    <hyperlink ref="I43" r:id="rId2" xr:uid="{A48755A3-F6F9-489F-BF70-F73244A79983}"/>
-    <hyperlink ref="I33" r:id="rId3" xr:uid="{80D16523-BE05-4D7B-86FF-B2679F1C8849}"/>
-    <hyperlink ref="I32" r:id="rId4" xr:uid="{1ED56F14-F9CF-4455-8D6B-AFE0F0613BE3}"/>
-    <hyperlink ref="I34" r:id="rId5" xr:uid="{5BF59BFB-A99D-417B-9C99-390AD5E9B2A9}"/>
-    <hyperlink ref="I38" r:id="rId6" xr:uid="{813765F1-671A-4647-9D1D-6D8E8E0CA1C4}"/>
-    <hyperlink ref="I36" r:id="rId7" xr:uid="{85C5773C-09B9-48C7-AF00-A4F512492105}"/>
-    <hyperlink ref="I37" r:id="rId8" xr:uid="{8D172767-32D0-46B7-BC64-43C77B998662}"/>
+    <hyperlink ref="I40" r:id="rId1" xr:uid="{40256E4C-835D-4507-A223-CB9BD22DC96B}"/>
+    <hyperlink ref="I43" r:id="rId2" xr:uid="{A0E00267-705D-4ED1-BA73-6CBBAE53D090}"/>
+    <hyperlink ref="I33" r:id="rId3" xr:uid="{F43646A5-06AE-4DDF-9790-913AC26A6F49}"/>
+    <hyperlink ref="I32" r:id="rId4" xr:uid="{F113B2F5-9E75-4FE2-83F4-6C372A9A1F8C}"/>
+    <hyperlink ref="I34" r:id="rId5" xr:uid="{66EA7D05-119A-4C68-898D-EE4AE7C603E6}"/>
+    <hyperlink ref="I38" r:id="rId6" xr:uid="{15D5D132-805A-45DC-9478-5B086F9D3B0F}"/>
+    <hyperlink ref="I36" r:id="rId7" xr:uid="{461C2750-A58C-4AD9-AEC9-633305CD1116}"/>
+    <hyperlink ref="I37" r:id="rId8" xr:uid="{811D4D85-CC6D-480D-9773-CE0B2F9C0974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최예만\workspace\gitrepo\First-Project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGSS2KMS\Documents\GitHub\First-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE947DD-1AD2-4E30-80E5-9E3A25F1F543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257DDFEB-516D-48BE-9CAB-31245C30C7DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="요구사항명세서_원본" sheetId="1" r:id="rId1"/>
+    <sheet name="간트차트_원본" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서_원본!$A$2:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="225">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -824,12 +828,240 @@
     <t>소프트웨어 가상화로 만들어 개발 환경을 제공함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>프로젝트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 부품 정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 명세서 작성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간트차트 작성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업 환경 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 온도 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 습도 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 미세먼지 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 전기 사용량 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로 수도 사용량 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 온도 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 습도 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 미세먼지 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 전기 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 수질 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 수도 요금 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터로 전기 요금 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영환경 Docker &amp; linux 환경 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크 Spring MVC환경 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크 ReactJs환경 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수질 현황판 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 수도 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 전기 사용량 Visualizng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수도, 전기 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재,과거 수도 요금 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재,과거 전기 요금 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수도, 전기 요금합계 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 실내 온도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 실내 습도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 실내 미세먼지 Visualzing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 실외 온도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 실외 습도 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 실외 미세먼지 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 습도 경고등 Visualizng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 사용량 Visualizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동 냉난방기 제어 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동 가습기 제어 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동 전등 제어 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동 버튼 활성화 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도에 따른 냉난방기 자동 제어 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습도에 따른 가습기 자동 제어 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 검토, 발표 ppt 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,8 +1174,24 @@
       <name val="AppleSDGothicNeo-Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,8 +1227,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1080,8 +1339,276 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,8 +1618,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,6 +1722,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,17 +1734,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="60% - 강조색6" xfId="4" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="3" builtinId="29"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
@@ -1224,6 +1849,1459 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>프로젝트 명</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>간트차트_원본!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>시작일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>간트차트_원본!$B$9:$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>주제 정하기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>센서 부품 정하기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>요구사항 명세서 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>간트차트 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>협업 환경 만들기</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>*데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>센서로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>센서로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>센서로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>센서로 전기 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>센서로 수도 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>공공데이터로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>공공데이터로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>공공데이터로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>공공데이터로 전기 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>공공데이터로 수질 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>공공데이터로 수도 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>공공데이터로 전기 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>실시간 데이터를 MongoDB에 저장</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>운영환경 Docker &amp; linux 환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>프레임워크 Spring MVC환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>프레임워크 ReactJs환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>수질 현황판 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>현재 수도 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>현재 전기 사용량 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>총 수도, 전기 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>현재,과거 수도 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>현재,과거 전기 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>총 수도, 전기 요금합계 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>실시간 실내 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>실시간 실내 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>실시간 실내 미세먼지 Visualzing</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>실시간 실외 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>실시간 실외 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>실시간 실외 미세먼지 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>범위 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>실내 온도 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>실내 습도 경고등 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>실내 미세먼지 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>CPU 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>resource 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>메모리 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>네트워크 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>수동 냉난방기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>수동 가습기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>수동 전등 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>수동 버튼 활성화 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>온도에 따른 냉난방기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>습도에 따른 가습기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>최종 검토, 발표 ppt 만들기</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>간트차트_원본!$C$9:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE37-4D34-B85B-D3E89C9E265E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>간트차트_원본!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>기간</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CE37-4D34-B85B-D3E89C9E265E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>간트차트_원본!$B$9:$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>주제 정하기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>센서 부품 정하기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>요구사항 명세서 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>간트차트 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>협업 환경 만들기</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>*데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>센서로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>센서로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>센서로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>센서로 전기 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>센서로 수도 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>공공데이터로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>공공데이터로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>공공데이터로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>공공데이터로 전기 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>공공데이터로 수질 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>공공데이터로 수도 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>공공데이터로 전기 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>실시간 데이터를 MongoDB에 저장</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>운영환경 Docker &amp; linux 환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>프레임워크 Spring MVC환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>프레임워크 ReactJs환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>수질 현황판 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>현재 수도 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>현재 전기 사용량 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>총 수도, 전기 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>현재,과거 수도 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>현재,과거 전기 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>총 수도, 전기 요금합계 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>실시간 실내 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>실시간 실내 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>실시간 실내 미세먼지 Visualzing</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>실시간 실외 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>실시간 실외 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>실시간 실외 미세먼지 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>범위 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>실내 온도 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>실내 습도 경고등 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>실내 미세먼지 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>CPU 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>resource 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>메모리 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>네트워크 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>수동 냉난방기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>수동 가습기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>수동 전등 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>수동 버튼 활성화 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>온도에 따른 냉난방기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>습도에 따른 가습기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>최종 검토, 발표 ppt 만들기</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>간트차트_원본!$D$9:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE37-4D34-B85B-D3E89C9E265E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="68189568"/>
+        <c:axId val="90053248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68189568"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90053248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90053248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44010"/>
+          <c:min val="43929"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68189568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="12700"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B1CBEE-6F97-45C3-A4BB-2E8120EB2C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>시작일</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>기간</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>주제 정하기</v>
+          </cell>
+          <cell r="C9">
+            <v>43929</v>
+          </cell>
+          <cell r="D9">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>센서 부품 정하기</v>
+          </cell>
+          <cell r="C10">
+            <v>43930</v>
+          </cell>
+          <cell r="D10">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>요구사항 명세서 작성하기</v>
+          </cell>
+          <cell r="C11">
+            <v>43931</v>
+          </cell>
+          <cell r="D11">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>간트차트 작성하기</v>
+          </cell>
+          <cell r="C12">
+            <v>43942</v>
+          </cell>
+          <cell r="D12">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>협업 환경 만들기</v>
+          </cell>
+          <cell r="C13">
+            <v>43941</v>
+          </cell>
+          <cell r="D13">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>*데이터 수집</v>
+          </cell>
+          <cell r="C14">
+            <v>43948</v>
+          </cell>
+          <cell r="D14">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>센서로 온도 데이터 수집</v>
+          </cell>
+          <cell r="C15">
+            <v>43948</v>
+          </cell>
+          <cell r="D15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>센서로 습도 데이터 수집</v>
+          </cell>
+          <cell r="C16">
+            <v>43950</v>
+          </cell>
+          <cell r="D16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>센서로 미세먼지 데이터 수집</v>
+          </cell>
+          <cell r="C17">
+            <v>43952</v>
+          </cell>
+          <cell r="D17">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>센서로 전기 사용량 수집</v>
+          </cell>
+          <cell r="C18">
+            <v>43954</v>
+          </cell>
+          <cell r="D18">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>센서로 수도 사용량 수집</v>
+          </cell>
+          <cell r="C19">
+            <v>43958</v>
+          </cell>
+          <cell r="D19">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>공공데이터로 온도 데이터 수집</v>
+          </cell>
+          <cell r="C20">
+            <v>43962</v>
+          </cell>
+          <cell r="D20">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>공공데이터로 습도 데이터 수집</v>
+          </cell>
+          <cell r="C21">
+            <v>43962</v>
+          </cell>
+          <cell r="D21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>공공데이터로 미세먼지 데이터 수집</v>
+          </cell>
+          <cell r="C22">
+            <v>43962</v>
+          </cell>
+          <cell r="D22">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>공공데이터로 전기 데이터 수집</v>
+          </cell>
+          <cell r="C23">
+            <v>43962</v>
+          </cell>
+          <cell r="D23">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>공공데이터로 수질 데이터 수집</v>
+          </cell>
+          <cell r="C24">
+            <v>43962</v>
+          </cell>
+          <cell r="D24">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>공공데이터로 수도 요금 수집</v>
+          </cell>
+          <cell r="C25">
+            <v>43962</v>
+          </cell>
+          <cell r="D25">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>공공데이터로 전기 요금 수집</v>
+          </cell>
+          <cell r="C26">
+            <v>43962</v>
+          </cell>
+          <cell r="D26">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>실시간 데이터를 MongoDB에 저장</v>
+          </cell>
+          <cell r="C27">
+            <v>43969</v>
+          </cell>
+          <cell r="D27">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>운영환경 Docker &amp; linux 환경 구축</v>
+          </cell>
+          <cell r="C28">
+            <v>43969</v>
+          </cell>
+          <cell r="D28">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>프레임워크 Spring MVC환경 구축</v>
+          </cell>
+          <cell r="C29">
+            <v>43969</v>
+          </cell>
+          <cell r="D29">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>프레임워크 ReactJs환경 구축</v>
+          </cell>
+          <cell r="C30">
+            <v>43969</v>
+          </cell>
+          <cell r="D30">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>수질 현황판 Visualizing</v>
+          </cell>
+          <cell r="C31">
+            <v>43976</v>
+          </cell>
+          <cell r="D31">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>현재 수도 사용량 Visualizing</v>
+          </cell>
+          <cell r="C32">
+            <v>43976</v>
+          </cell>
+          <cell r="D32">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>현재 전기 사용량 Visualizng</v>
+          </cell>
+          <cell r="C33">
+            <v>43976</v>
+          </cell>
+          <cell r="D33">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>총 수도, 전기 사용량 Visualizing</v>
+          </cell>
+          <cell r="C34">
+            <v>43976</v>
+          </cell>
+          <cell r="D34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>현재,과거 수도 요금 Visualizing</v>
+          </cell>
+          <cell r="C35">
+            <v>43976</v>
+          </cell>
+          <cell r="D35">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>현재,과거 전기 요금 Visualizing</v>
+          </cell>
+          <cell r="C36">
+            <v>43976</v>
+          </cell>
+          <cell r="D36">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>총 수도, 전기 요금합계 Visualizing</v>
+          </cell>
+          <cell r="C37">
+            <v>43976</v>
+          </cell>
+          <cell r="D37">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>실시간 실내 온도 Visualizing</v>
+          </cell>
+          <cell r="C38">
+            <v>43983</v>
+          </cell>
+          <cell r="D38">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>실시간 실내 습도 Visualizing</v>
+          </cell>
+          <cell r="C39">
+            <v>43983</v>
+          </cell>
+          <cell r="D39">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>실시간 실내 미세먼지 Visualzing</v>
+          </cell>
+          <cell r="C40">
+            <v>43983</v>
+          </cell>
+          <cell r="D40">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>실시간 실외 온도 Visualizing</v>
+          </cell>
+          <cell r="C41">
+            <v>43983</v>
+          </cell>
+          <cell r="D41">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>실시간 실외 습도 Visualizing</v>
+          </cell>
+          <cell r="C42">
+            <v>43983</v>
+          </cell>
+          <cell r="D42">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>실시간 실외 미세먼지 Visualizing</v>
+          </cell>
+          <cell r="C43">
+            <v>43983</v>
+          </cell>
+          <cell r="D43">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>범위 Visualizing</v>
+          </cell>
+          <cell r="C44">
+            <v>43983</v>
+          </cell>
+          <cell r="D44">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>실내 온도 경고등 Visualizing</v>
+          </cell>
+          <cell r="C45">
+            <v>43983</v>
+          </cell>
+          <cell r="D45">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>실내 습도 경고등 Visualizng</v>
+          </cell>
+          <cell r="C46">
+            <v>43983</v>
+          </cell>
+          <cell r="D46">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>실내 미세먼지 경고등 Visualizing</v>
+          </cell>
+          <cell r="C47">
+            <v>43983</v>
+          </cell>
+          <cell r="D47">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>CPU 사용량 Visualizing</v>
+          </cell>
+          <cell r="C48">
+            <v>43990</v>
+          </cell>
+          <cell r="D48">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>resource 사용량 Visualizing</v>
+          </cell>
+          <cell r="C49">
+            <v>43990</v>
+          </cell>
+          <cell r="D49">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>메모리 사용량 Visualizing</v>
+          </cell>
+          <cell r="C50">
+            <v>43990</v>
+          </cell>
+          <cell r="D50">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>네트워크 사용량 Visualizing</v>
+          </cell>
+          <cell r="C51">
+            <v>43990</v>
+          </cell>
+          <cell r="D51">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>수동 냉난방기 제어 버튼 만들기</v>
+          </cell>
+          <cell r="C52">
+            <v>43997</v>
+          </cell>
+          <cell r="D52">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>수동 가습기 제어 버튼 만들기</v>
+          </cell>
+          <cell r="C53">
+            <v>43997</v>
+          </cell>
+          <cell r="D53">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>수동 전등 제어 버튼 만들기</v>
+          </cell>
+          <cell r="C54">
+            <v>43997</v>
+          </cell>
+          <cell r="D54">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>수동 버튼 활성화 버튼 만들기</v>
+          </cell>
+          <cell r="C55">
+            <v>43997</v>
+          </cell>
+          <cell r="D55">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>온도에 따른 냉난방기 자동 제어 버튼 만들기</v>
+          </cell>
+          <cell r="C56">
+            <v>44003</v>
+          </cell>
+          <cell r="D56">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>습도에 따른 가습기 자동 제어 버튼 만들기</v>
+          </cell>
+          <cell r="C57">
+            <v>44003</v>
+          </cell>
+          <cell r="D57">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</v>
+          </cell>
+          <cell r="C58">
+            <v>44003</v>
+          </cell>
+          <cell r="D58">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>최종 검토, 발표 ppt 만들기</v>
+          </cell>
+          <cell r="C59">
+            <v>44008</v>
+          </cell>
+          <cell r="D59">
+            <v>2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175089AE-DD4C-418C-9246-F6D6D2F87744}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1581,13 +3659,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -1603,9 +3681,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="16" t="s">
         <v>65</v>
       </c>
@@ -1619,9 +3697,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="16" t="s">
         <v>64</v>
       </c>
@@ -1635,9 +3713,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="16" t="s">
         <v>70</v>
       </c>
@@ -1648,8 +3726,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="37" t="s">
         <v>81</v>
       </c>
@@ -1665,9 +3743,9 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="26" t="s">
         <v>68</v>
       </c>
@@ -1683,9 +3761,9 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="16" t="s">
         <v>69</v>
       </c>
@@ -1699,8 +3777,8 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="41.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="36" t="s">
         <v>52</v>
       </c>
@@ -1719,9 +3797,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="41.4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1737,9 +3815,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="41.4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
@@ -1755,9 +3833,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
         <v>153</v>
       </c>
@@ -1769,9 +3847,9 @@
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="34.799999999999997">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1787,9 +3865,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="16" t="s">
         <v>105</v>
       </c>
@@ -1801,9 +3879,9 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="41.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="16" t="s">
         <v>104</v>
       </c>
@@ -1817,9 +3895,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
@@ -1830,9 +3908,9 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="16" t="s">
         <v>115</v>
       </c>
@@ -1843,9 +3921,9 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="16" t="s">
         <v>83</v>
       </c>
@@ -1856,9 +3934,9 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="16" t="s">
         <v>106</v>
       </c>
@@ -1869,9 +3947,9 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="16" t="s">
         <v>154</v>
       </c>
@@ -1882,9 +3960,9 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
@@ -1895,9 +3973,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
@@ -1908,9 +3986,9 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="16" t="s">
         <v>36</v>
       </c>
@@ -1921,9 +3999,9 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
@@ -1934,9 +4012,9 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="16" t="s">
         <v>39</v>
       </c>
@@ -1947,9 +4025,9 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1960,9 +4038,9 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
@@ -1973,9 +4051,9 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
@@ -1988,9 +4066,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="16" t="s">
         <v>30</v>
       </c>
@@ -2003,9 +4081,9 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="16" t="s">
         <v>32</v>
       </c>
@@ -2018,13 +4096,13 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -2040,9 +4118,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -2056,9 +4134,9 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="16" t="s">
         <v>34</v>
       </c>
@@ -2072,9 +4150,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2085,9 +4163,9 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2101,9 +4179,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2117,9 +4195,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2133,9 +4211,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="35" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2150,9 +4228,9 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
@@ -2168,9 +4246,9 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
@@ -2183,9 +4261,9 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2198,9 +4276,9 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2216,13 +4294,13 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="33" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -2235,9 +4313,9 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +4326,9 @@
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
@@ -2261,9 +4339,9 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +4352,7 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -2295,8 +4373,8 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="33" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -2314,9 +4392,9 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="32" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -2331,9 +4409,9 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="26" t="s">
         <v>139</v>
       </c>
@@ -2346,8 +4424,8 @@
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="10" t="s">
         <v>62</v>
       </c>
@@ -2363,11 +4441,11 @@
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="34.799999999999997">
-      <c r="A53" s="33"/>
-      <c r="B53" s="32" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -2382,9 +4460,9 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="26" t="s">
         <v>27</v>
       </c>
@@ -2397,11 +4475,11 @@
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="33"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="33" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -2414,9 +4492,9 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="26" t="s">
         <v>56</v>
       </c>
@@ -2427,9 +4505,9 @@
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="26" t="s">
         <v>57</v>
       </c>
@@ -2448,6 +4526,14 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -2459,14 +4545,6 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2482,4 +4560,863 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3413B3A0-24C5-4642-BF55-AAA486E6D3EA}">
+  <dimension ref="B1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="4.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="1.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7" ht="18" thickBot="1">
+      <c r="B2" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="42">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="44">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18" thickBot="1">
+      <c r="B5" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="46">
+        <f>C4-C3</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" thickBot="1"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="47">
+        <v>43929</v>
+      </c>
+      <c r="D9" s="48">
+        <f>E9-C9</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="49">
+        <v>43939</v>
+      </c>
+      <c r="G9">
+        <f>SMALL(C9:C59,1)</f>
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="50">
+        <v>43930</v>
+      </c>
+      <c r="D10" s="48">
+        <f t="shared" ref="D10:D58" si="0">E10-C10</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="51">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="47">
+        <v>43931</v>
+      </c>
+      <c r="D11" s="48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="49">
+        <v>43941</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="52">
+        <v>43942</v>
+      </c>
+      <c r="D12" s="53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="51">
+        <v>43947</v>
+      </c>
+      <c r="G12">
+        <f>LARGE(E9:E59,1)</f>
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="54">
+        <v>43941</v>
+      </c>
+      <c r="D13" s="53">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E13" s="51">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="54">
+        <v>43948</v>
+      </c>
+      <c r="D14" s="53">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="51">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="54">
+        <v>43948</v>
+      </c>
+      <c r="D15" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="49">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="55">
+        <v>43950</v>
+      </c>
+      <c r="D16" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="49">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="56">
+        <v>43952</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="51">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="56">
+        <v>43954</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="51">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="56">
+        <v>43958</v>
+      </c>
+      <c r="D19" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="51">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="56">
+        <v>43962</v>
+      </c>
+      <c r="D20" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="51">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="56">
+        <v>43962</v>
+      </c>
+      <c r="D21" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="51">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="56">
+        <v>43962</v>
+      </c>
+      <c r="D22" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="51">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="56">
+        <v>43962</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="51">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="56">
+        <v>43962</v>
+      </c>
+      <c r="D24" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="51">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="55">
+        <v>43962</v>
+      </c>
+      <c r="D25" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="49">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="56">
+        <v>43962</v>
+      </c>
+      <c r="D26" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="51">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="56">
+        <v>43969</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="51">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="56">
+        <v>43969</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="51">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="56">
+        <v>43969</v>
+      </c>
+      <c r="D29" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="51">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="56">
+        <v>43969</v>
+      </c>
+      <c r="D30" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="51">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="56">
+        <v>43976</v>
+      </c>
+      <c r="D31" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="51">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="56">
+        <v>43976</v>
+      </c>
+      <c r="D32" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="51">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="56">
+        <v>43976</v>
+      </c>
+      <c r="D33" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="51">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="56">
+        <v>43976</v>
+      </c>
+      <c r="D34" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E34" s="51">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="55">
+        <v>43976</v>
+      </c>
+      <c r="D35" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="49">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="56">
+        <v>43976</v>
+      </c>
+      <c r="D36" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="51">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="56">
+        <v>43976</v>
+      </c>
+      <c r="D37" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E37" s="51">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="55">
+        <v>43983</v>
+      </c>
+      <c r="D38" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="49">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="55">
+        <v>43983</v>
+      </c>
+      <c r="D39" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E39" s="49">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D40" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="51">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D41" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="51">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D42" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="51">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D43" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E43" s="51">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D44" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E44" s="51">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D45" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E45" s="51">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="55">
+        <v>43983</v>
+      </c>
+      <c r="D46" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="49">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="56">
+        <v>43983</v>
+      </c>
+      <c r="D47" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E47" s="51">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="56">
+        <v>43990</v>
+      </c>
+      <c r="D48" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E48" s="51">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="56">
+        <v>43990</v>
+      </c>
+      <c r="D49" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E49" s="51">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="56">
+        <v>43990</v>
+      </c>
+      <c r="D50" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E50" s="51">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="56">
+        <v>43990</v>
+      </c>
+      <c r="D51" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E51" s="51">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="56">
+        <v>43997</v>
+      </c>
+      <c r="D52" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="51">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="56">
+        <v>43997</v>
+      </c>
+      <c r="D53" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E53" s="51">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="56">
+        <v>43997</v>
+      </c>
+      <c r="D54" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E54" s="51">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="56">
+        <v>43997</v>
+      </c>
+      <c r="D55" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E55" s="51">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="56">
+        <v>44003</v>
+      </c>
+      <c r="D56" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E56" s="51">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="56">
+        <v>44003</v>
+      </c>
+      <c r="D57" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E57" s="51">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="56">
+        <v>44003</v>
+      </c>
+      <c r="D58" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E58" s="51">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="18" thickBot="1">
+      <c r="B59" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="57">
+        <v>44008</v>
+      </c>
+      <c r="D59" s="58">
+        <v>2</v>
+      </c>
+      <c r="E59" s="59">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/documents/software_requirements_specification.xlsx
+++ b/documents/software_requirements_specification.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGSS2KMS\Documents\GitHub\First-Project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257DDFEB-516D-48BE-9CAB-31245C30C7DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DF53D-8E7D-4FC7-894C-8A22CDAD20CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="26160" windowHeight="11325" activeTab="2" xr2:uid="{34141951-229B-43FF-9238-036C6BA94A14}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서_원본" sheetId="1" r:id="rId1"/>
     <sheet name="간트차트_원본" sheetId="2" r:id="rId2"/>
+    <sheet name="대퉁대퉁" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서_원본!$A$2:$G$56</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="227">
   <si>
     <t>요구사항 명세서(스마트홈)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1054,6 +1056,14 @@
   </si>
   <si>
     <t>최종 검토, 발표 ppt 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,6 +1735,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,100 +1834,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2596,6 +2615,853 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CE37-4D34-B85B-D3E89C9E265E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="68189568"/>
+        <c:axId val="90053248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68189568"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90053248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90053248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44010"/>
+          <c:min val="43929"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68189568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="12700"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>프로젝트 명</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>대퉁대퉁!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>시작일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>대퉁대퉁!$B$9:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>주제 정하기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>센서 부품 정하기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>요구사항 명세서 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>간트차트 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>협업 환경 만들기</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>팀 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>센서로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>센서로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>센서로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>센서로 전기 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>센서로 수도 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>실시간 데이터를 MongoDB에 저장</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>운영환경 Docker &amp; linux 환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>현재 수도 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>현재 전기 사용량 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>총 수도, 전기 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>실시간 실내 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>실시간 실내 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>실시간 실내 미세먼지 Visualzing</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>수동 냉난방기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>수동 가습기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>수동 전등 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>수동 버튼 활성화 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>온도에 따른 냉난방기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>습도에 따른 가습기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>팀 2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>공공데이터로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>공공데이터로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>공공데이터로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>공공데이터로 전기 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>공공데이터로 수질 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>공공데이터로 수도 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>공공데이터로 전기 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>프레임워크 Spring MVC환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>프레임워크 ReactJs환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>수질 현황판 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>현재,과거 수도 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>현재,과거 전기 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>총 수도, 전기 요금합계 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>실시간 실외 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>실시간 실외 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>실시간 실외 미세먼지 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>범위 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>실내 온도 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>실내 습도 경고등 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>실내 미세먼지 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CPU 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>resource 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>메모리 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>네트워크 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>최종 검토, 발표 ppt 만들기</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>대퉁대퉁!$C$9:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9527-445E-A589-DD5FB42A5388}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>대퉁대퉁!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>기간</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9527-445E-A589-DD5FB42A5388}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9527-445E-A589-DD5FB42A5388}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>대퉁대퉁!$B$9:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>주제 정하기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>센서 부품 정하기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>요구사항 명세서 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>간트차트 작성하기</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>협업 환경 만들기</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>팀 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>센서로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>센서로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>센서로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>센서로 전기 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>센서로 수도 사용량 수집</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>실시간 데이터를 MongoDB에 저장</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>운영환경 Docker &amp; linux 환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>현재 수도 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>현재 전기 사용량 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>총 수도, 전기 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>실시간 실내 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>실시간 실내 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>실시간 실내 미세먼지 Visualzing</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>수동 냉난방기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>수동 가습기 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>수동 전등 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>수동 버튼 활성화 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>온도에 따른 냉난방기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>습도에 따른 가습기 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>팀 2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>공공데이터로 온도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>공공데이터로 습도 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>공공데이터로 미세먼지 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>공공데이터로 전기 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>공공데이터로 수질 데이터 수집</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>공공데이터로 수도 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>공공데이터로 전기 요금 수집</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>프레임워크 Spring MVC환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>프레임워크 ReactJs환경 구축</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>수질 현황판 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>현재,과거 수도 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>현재,과거 전기 요금 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>총 수도, 전기 요금합계 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>실시간 실외 온도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>실시간 실외 습도 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>실시간 실외 미세먼지 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>범위 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>실내 온도 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>실내 습도 경고등 Visualizng</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>실내 미세먼지 경고등 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CPU 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>resource 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>메모리 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>네트워크 사용량 Visualizing</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>최종 검토, 발표 ppt 만들기</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>대퉁대퉁!$D$9:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9527-445E-A589-DD5FB42A5388}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2717,16 +3583,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377068A0-C9CA-4861-966B-5520A840751D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="요구사항명세서_원본"/>
+      <sheetName val="간트차트_원본"/>
+      <sheetName val="간트차트_원본 (2)"/>
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="8">
           <cell r="C8" t="str">
             <v>시작일</v>
@@ -2787,18 +3698,18 @@
             <v>43941</v>
           </cell>
           <cell r="D13">
-            <v>69</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>*데이터 수집</v>
+            <v>팀 1</v>
           </cell>
           <cell r="C14">
-            <v>43948</v>
+            <v>43929</v>
           </cell>
           <cell r="D14">
-            <v>14</v>
+            <v>83</v>
           </cell>
         </row>
         <row r="15">
@@ -2858,10 +3769,10 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>공공데이터로 온도 데이터 수집</v>
+            <v>실시간 데이터를 MongoDB에 저장</v>
           </cell>
           <cell r="C20">
-            <v>43962</v>
+            <v>43969</v>
           </cell>
           <cell r="D20">
             <v>4</v>
@@ -2869,10 +3780,10 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>공공데이터로 습도 데이터 수집</v>
+            <v>운영환경 Docker &amp; linux 환경 구축</v>
           </cell>
           <cell r="C21">
-            <v>43962</v>
+            <v>43969</v>
           </cell>
           <cell r="D21">
             <v>4</v>
@@ -2880,10 +3791,10 @@
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>공공데이터로 미세먼지 데이터 수집</v>
+            <v>현재 수도 사용량 Visualizing</v>
           </cell>
           <cell r="C22">
-            <v>43962</v>
+            <v>43976</v>
           </cell>
           <cell r="D22">
             <v>4</v>
@@ -2891,10 +3802,10 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>공공데이터로 전기 데이터 수집</v>
+            <v>현재 전기 사용량 Visualizng</v>
           </cell>
           <cell r="C23">
-            <v>43962</v>
+            <v>43976</v>
           </cell>
           <cell r="D23">
             <v>4</v>
@@ -2902,10 +3813,10 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>공공데이터로 수질 데이터 수집</v>
+            <v>총 수도, 전기 사용량 Visualizing</v>
           </cell>
           <cell r="C24">
-            <v>43962</v>
+            <v>43976</v>
           </cell>
           <cell r="D24">
             <v>4</v>
@@ -2913,10 +3824,10 @@
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>공공데이터로 수도 요금 수집</v>
+            <v>실시간 실내 온도 Visualizing</v>
           </cell>
           <cell r="C25">
-            <v>43962</v>
+            <v>43983</v>
           </cell>
           <cell r="D25">
             <v>4</v>
@@ -2924,10 +3835,10 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>공공데이터로 전기 요금 수집</v>
+            <v>실시간 실내 습도 Visualizing</v>
           </cell>
           <cell r="C26">
-            <v>43962</v>
+            <v>43983</v>
           </cell>
           <cell r="D26">
             <v>4</v>
@@ -2935,10 +3846,10 @@
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>실시간 데이터를 MongoDB에 저장</v>
+            <v>실시간 실내 미세먼지 Visualzing</v>
           </cell>
           <cell r="C27">
-            <v>43969</v>
+            <v>43983</v>
           </cell>
           <cell r="D27">
             <v>4</v>
@@ -2946,120 +3857,120 @@
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>운영환경 Docker &amp; linux 환경 구축</v>
+            <v>수동 냉난방기 제어 버튼 만들기</v>
           </cell>
           <cell r="C28">
-            <v>43969</v>
+            <v>43997</v>
           </cell>
           <cell r="D28">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>프레임워크 Spring MVC환경 구축</v>
+            <v>수동 가습기 제어 버튼 만들기</v>
           </cell>
           <cell r="C29">
-            <v>43969</v>
+            <v>43997</v>
           </cell>
           <cell r="D29">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>프레임워크 ReactJs환경 구축</v>
+            <v>수동 전등 제어 버튼 만들기</v>
           </cell>
           <cell r="C30">
-            <v>43969</v>
+            <v>43997</v>
           </cell>
           <cell r="D30">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>수질 현황판 Visualizing</v>
+            <v>수동 버튼 활성화 버튼 만들기</v>
           </cell>
           <cell r="C31">
-            <v>43976</v>
+            <v>43997</v>
           </cell>
           <cell r="D31">
-            <v>4</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>현재 수도 사용량 Visualizing</v>
+            <v>온도에 따른 냉난방기 자동 제어 버튼 만들기</v>
           </cell>
           <cell r="C32">
-            <v>43976</v>
+            <v>44003</v>
           </cell>
           <cell r="D32">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>현재 전기 사용량 Visualizng</v>
+            <v>습도에 따른 가습기 자동 제어 버튼 만들기</v>
           </cell>
           <cell r="C33">
-            <v>43976</v>
+            <v>44003</v>
           </cell>
           <cell r="D33">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>총 수도, 전기 사용량 Visualizing</v>
+            <v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</v>
           </cell>
           <cell r="C34">
-            <v>43976</v>
+            <v>44003</v>
           </cell>
           <cell r="D34">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>현재,과거 수도 요금 Visualizing</v>
+            <v>팀 2</v>
           </cell>
           <cell r="C35">
-            <v>43976</v>
+            <v>43929</v>
           </cell>
           <cell r="D35">
-            <v>6</v>
+            <v>83</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>현재,과거 전기 요금 Visualizing</v>
+            <v>공공데이터로 온도 데이터 수집</v>
           </cell>
           <cell r="C36">
-            <v>43976</v>
+            <v>43962</v>
           </cell>
           <cell r="D36">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>총 수도, 전기 요금합계 Visualizing</v>
+            <v>공공데이터로 습도 데이터 수집</v>
           </cell>
           <cell r="C37">
-            <v>43976</v>
+            <v>43962</v>
           </cell>
           <cell r="D37">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>실시간 실내 온도 Visualizing</v>
+            <v>공공데이터로 미세먼지 데이터 수집</v>
           </cell>
           <cell r="C38">
-            <v>43983</v>
+            <v>43962</v>
           </cell>
           <cell r="D38">
             <v>4</v>
@@ -3067,10 +3978,10 @@
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>실시간 실내 습도 Visualizing</v>
+            <v>공공데이터로 전기 데이터 수집</v>
           </cell>
           <cell r="C39">
-            <v>43983</v>
+            <v>43962</v>
           </cell>
           <cell r="D39">
             <v>4</v>
@@ -3078,10 +3989,10 @@
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>실시간 실내 미세먼지 Visualzing</v>
+            <v>공공데이터로 수질 데이터 수집</v>
           </cell>
           <cell r="C40">
-            <v>43983</v>
+            <v>43962</v>
           </cell>
           <cell r="D40">
             <v>4</v>
@@ -3089,10 +4000,10 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>실시간 실외 온도 Visualizing</v>
+            <v>공공데이터로 수도 요금 수집</v>
           </cell>
           <cell r="C41">
-            <v>43983</v>
+            <v>43962</v>
           </cell>
           <cell r="D41">
             <v>4</v>
@@ -3100,10 +4011,10 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>실시간 실외 습도 Visualizing</v>
+            <v>공공데이터로 전기 요금 수집</v>
           </cell>
           <cell r="C42">
-            <v>43983</v>
+            <v>43962</v>
           </cell>
           <cell r="D42">
             <v>4</v>
@@ -3111,10 +4022,10 @@
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>실시간 실외 미세먼지 Visualizing</v>
+            <v>프레임워크 Spring MVC환경 구축</v>
           </cell>
           <cell r="C43">
-            <v>43983</v>
+            <v>43969</v>
           </cell>
           <cell r="D43">
             <v>4</v>
@@ -3122,32 +4033,32 @@
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>범위 Visualizing</v>
+            <v>프레임워크 ReactJs환경 구축</v>
           </cell>
           <cell r="C44">
-            <v>43983</v>
+            <v>43969</v>
           </cell>
           <cell r="D44">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>실내 온도 경고등 Visualizing</v>
+            <v>수질 현황판 Visualizing</v>
           </cell>
           <cell r="C45">
-            <v>43983</v>
+            <v>43976</v>
           </cell>
           <cell r="D45">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>실내 습도 경고등 Visualizng</v>
+            <v>현재,과거 수도 요금 Visualizing</v>
           </cell>
           <cell r="C46">
-            <v>43983</v>
+            <v>43976</v>
           </cell>
           <cell r="D46">
             <v>6</v>
@@ -3155,10 +4066,10 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>실내 미세먼지 경고등 Visualizing</v>
+            <v>현재,과거 전기 요금 Visualizing</v>
           </cell>
           <cell r="C47">
-            <v>43983</v>
+            <v>43976</v>
           </cell>
           <cell r="D47">
             <v>6</v>
@@ -3166,10 +4077,10 @@
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>CPU 사용량 Visualizing</v>
+            <v>총 수도, 전기 요금합계 Visualizing</v>
           </cell>
           <cell r="C48">
-            <v>43990</v>
+            <v>43976</v>
           </cell>
           <cell r="D48">
             <v>6</v>
@@ -3177,87 +4088,87 @@
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>resource 사용량 Visualizing</v>
+            <v>실시간 실외 온도 Visualizing</v>
           </cell>
           <cell r="C49">
-            <v>43990</v>
+            <v>43983</v>
           </cell>
           <cell r="D49">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>메모리 사용량 Visualizing</v>
+            <v>실시간 실외 습도 Visualizing</v>
           </cell>
           <cell r="C50">
-            <v>43990</v>
+            <v>43983</v>
           </cell>
           <cell r="D50">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>네트워크 사용량 Visualizing</v>
+            <v>실시간 실외 미세먼지 Visualizing</v>
           </cell>
           <cell r="C51">
-            <v>43990</v>
+            <v>43983</v>
           </cell>
           <cell r="D51">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>수동 냉난방기 제어 버튼 만들기</v>
+            <v>범위 Visualizing</v>
           </cell>
           <cell r="C52">
-            <v>43997</v>
+            <v>43983</v>
           </cell>
           <cell r="D52">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>수동 가습기 제어 버튼 만들기</v>
+            <v>실내 온도 경고등 Visualizing</v>
           </cell>
           <cell r="C53">
-            <v>43997</v>
+            <v>43983</v>
           </cell>
           <cell r="D53">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>수동 전등 제어 버튼 만들기</v>
+            <v>실내 습도 경고등 Visualizng</v>
           </cell>
           <cell r="C54">
-            <v>43997</v>
+            <v>43983</v>
           </cell>
           <cell r="D54">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55" t="str">
-            <v>수동 버튼 활성화 버튼 만들기</v>
+            <v>실내 미세먼지 경고등 Visualizing</v>
           </cell>
           <cell r="C55">
-            <v>43997</v>
+            <v>43983</v>
           </cell>
           <cell r="D55">
-            <v>11</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56" t="str">
-            <v>온도에 따른 냉난방기 자동 제어 버튼 만들기</v>
+            <v>CPU 사용량 Visualizing</v>
           </cell>
           <cell r="C56">
-            <v>44003</v>
+            <v>43990</v>
           </cell>
           <cell r="D56">
             <v>6</v>
@@ -3265,10 +4176,10 @@
         </row>
         <row r="57">
           <cell r="B57" t="str">
-            <v>습도에 따른 가습기 자동 제어 버튼 만들기</v>
+            <v>resource 사용량 Visualizing</v>
           </cell>
           <cell r="C57">
-            <v>44003</v>
+            <v>43990</v>
           </cell>
           <cell r="D57">
             <v>6</v>
@@ -3276,10 +4187,10 @@
         </row>
         <row r="58">
           <cell r="B58" t="str">
-            <v>ON/OFF 버튼없이 전등 자동 제어 버튼 만들기</v>
+            <v>메모리 사용량 Visualizing</v>
           </cell>
           <cell r="C58">
-            <v>44003</v>
+            <v>43990</v>
           </cell>
           <cell r="D58">
             <v>6</v>
@@ -3287,18 +4198,29 @@
         </row>
         <row r="59">
           <cell r="B59" t="str">
+            <v>네트워크 사용량 Visualizing</v>
+          </cell>
+          <cell r="C59">
+            <v>43990</v>
+          </cell>
+          <cell r="D59">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
             <v>최종 검토, 발표 ppt 만들기</v>
           </cell>
-          <cell r="C59">
+          <cell r="C60">
             <v>44008</v>
           </cell>
-          <cell r="D59">
+          <cell r="D60">
             <v>2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3607,21 +4529,21 @@
       <selection activeCell="C10" sqref="C10:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
+    <row r="1" spans="1:9" ht="17.45" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +4554,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:9" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3659,13 +4581,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -3681,9 +4603,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="16" t="s">
         <v>65</v>
       </c>
@@ -3697,9 +4619,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="16" t="s">
         <v>64</v>
       </c>
@@ -3713,9 +4635,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="16" t="s">
         <v>70</v>
       </c>
@@ -3726,9 +4648,9 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="68" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -3743,9 +4665,9 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="26" t="s">
         <v>68</v>
       </c>
@@ -3761,9 +4683,9 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="16" t="s">
         <v>69</v>
       </c>
@@ -3776,10 +4698,10 @@
       <c r="G9" s="5"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="41.4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36" t="s">
+    <row r="10" spans="1:9" ht="42.75">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -3796,10 +4718,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="41.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+    <row r="11" spans="1:9" ht="42.75">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
@@ -3814,10 +4736,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.4">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+    <row r="12" spans="1:9" ht="42.75">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
@@ -3833,9 +4755,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="16" t="s">
         <v>153</v>
       </c>
@@ -3846,10 +4768,10 @@
       <c r="G13" s="10"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" ht="34.799999999999997">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+    <row r="14" spans="1:9" ht="33">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
@@ -3865,9 +4787,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="16" t="s">
         <v>105</v>
       </c>
@@ -3878,10 +4800,10 @@
       <c r="G15" s="10"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" ht="41.4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="1:9" ht="42.75">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="16" t="s">
         <v>104</v>
       </c>
@@ -3895,9 +4817,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
@@ -3908,9 +4830,9 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="16" t="s">
         <v>115</v>
       </c>
@@ -3921,9 +4843,9 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="16" t="s">
         <v>83</v>
       </c>
@@ -3934,9 +4856,9 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="16" t="s">
         <v>106</v>
       </c>
@@ -3947,9 +4869,9 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="16" t="s">
         <v>154</v>
       </c>
@@ -3960,9 +4882,9 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
@@ -3973,9 +4895,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
@@ -3986,9 +4908,9 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="16" t="s">
         <v>36</v>
       </c>
@@ -3999,9 +4921,9 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
@@ -4012,9 +4934,9 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="16" t="s">
         <v>39</v>
       </c>
@@ -4025,9 +4947,9 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
@@ -4038,9 +4960,9 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
@@ -4051,9 +4973,9 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
@@ -4066,9 +4988,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="16" t="s">
         <v>30</v>
       </c>
@@ -4081,9 +5003,9 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="16" t="s">
         <v>32</v>
       </c>
@@ -4096,13 +5018,13 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="63" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -4118,9 +5040,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -4134,9 +5056,9 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="16" t="s">
         <v>34</v>
       </c>
@@ -4150,9 +5072,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -4163,9 +5085,9 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
@@ -4179,9 +5101,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4195,9 +5117,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
@@ -4211,9 +5133,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="38" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="66" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -4228,9 +5150,9 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
@@ -4246,9 +5168,9 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
@@ -4261,9 +5183,9 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
@@ -4276,9 +5198,9 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
@@ -4294,13 +5216,13 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="63" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -4313,9 +5235,9 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
@@ -4326,9 +5248,9 @@
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
@@ -4339,9 +5261,9 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
@@ -4352,7 +5274,7 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="63" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -4373,8 +5295,8 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="34"/>
-      <c r="B49" s="33" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -4392,9 +5314,9 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="33" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -4409,9 +5331,9 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="26" t="s">
         <v>139</v>
       </c>
@@ -4424,8 +5346,8 @@
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="10" t="s">
         <v>62</v>
       </c>
@@ -4440,12 +5362,12 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="34.799999999999997">
-      <c r="A53" s="34"/>
-      <c r="B53" s="33" t="s">
+    <row r="53" spans="1:7" ht="33">
+      <c r="A53" s="64"/>
+      <c r="B53" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="63" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -4460,9 +5382,9 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="26" t="s">
         <v>27</v>
       </c>
@@ -4475,11 +5397,11 @@
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="34"/>
-      <c r="B55" s="33" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="63" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -4492,9 +5414,9 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="26" t="s">
         <v>56</v>
       </c>
@@ -4505,9 +5427,9 @@
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="26" t="s">
         <v>57</v>
       </c>
@@ -4526,14 +5448,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C53:C54"/>
@@ -4545,6 +5459,14 @@
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4566,66 +5488,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3413B3A0-24C5-4642-BF55-AAA486E6D3EA}">
   <dimension ref="B1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="4.296875" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
-    <col min="6" max="6" width="1.796875" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1">
-      <c r="B2" s="39" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B2" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="35" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="37">
         <v>43929</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="39">
         <v>44011</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18" thickBot="1">
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B5" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <f>C4-C3</f>
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1"/>
+    <row r="7" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="8" spans="2:7">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="58" t="s">
         <v>175</v>
       </c>
       <c r="G8" t="s">
@@ -4633,17 +5555,17 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="42">
         <v>43929</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="43">
         <f>E9-C9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="44">
         <v>43939</v>
       </c>
       <c r="G9">
@@ -4652,32 +5574,32 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="45">
         <v>43930</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="43">
         <f t="shared" ref="D10:D58" si="0">E10-C10</f>
         <v>10</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="46">
         <v>43940</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="42">
         <v>43931</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="44">
         <v>43941</v>
       </c>
       <c r="G11" t="s">
@@ -4685,17 +5607,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="47">
         <v>43942</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="46">
         <v>43947</v>
       </c>
       <c r="G12">
@@ -4704,714 +5626,714 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="49">
         <v>43941</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="48">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="46">
         <v>44010</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="49">
         <v>43948</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="48">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="46">
         <v>43962</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="49">
         <v>43948</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="44">
         <v>43950</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="50">
         <v>43950</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="44">
         <v>43952</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="51">
         <v>43952</v>
       </c>
       <c r="D17" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="46">
         <v>43954</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="51">
         <v>43954</v>
       </c>
       <c r="D18" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="46">
         <v>43958</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="51">
         <v>43958</v>
       </c>
       <c r="D19" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="46">
         <v>43962</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="51">
         <v>43962</v>
       </c>
       <c r="D20" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="46">
         <v>43966</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="51">
         <v>43962</v>
       </c>
       <c r="D21" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="46">
         <v>43966</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="51">
         <v>43962</v>
       </c>
       <c r="D22" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="46">
         <v>43966</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="51">
         <v>43962</v>
       </c>
       <c r="D23" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="46">
         <v>43966</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="51">
         <v>43962</v>
       </c>
       <c r="D24" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="46">
         <v>43966</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="50">
         <v>43962</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="44">
         <v>43966</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="51">
         <v>43962</v>
       </c>
       <c r="D26" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="46">
         <v>43966</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="51">
         <v>43969</v>
       </c>
       <c r="D27" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="46">
         <v>43973</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="51">
         <v>43969</v>
       </c>
       <c r="D28" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="46">
         <v>43973</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="51">
         <v>43969</v>
       </c>
       <c r="D29" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="46">
         <v>43973</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="51">
         <v>43969</v>
       </c>
       <c r="D30" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="46">
         <v>43973</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="51">
         <v>43976</v>
       </c>
       <c r="D31" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="46">
         <v>43980</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="51">
         <v>43976</v>
       </c>
       <c r="D32" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="46">
         <v>43980</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="51">
         <v>43976</v>
       </c>
       <c r="D33" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="46">
         <v>43980</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="51">
         <v>43976</v>
       </c>
       <c r="D34" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="46">
         <v>43980</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="50">
         <v>43976</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="44">
         <v>43982</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="51">
         <v>43976</v>
       </c>
       <c r="D36" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="46">
         <v>43982</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="51">
         <v>43976</v>
       </c>
       <c r="D37" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="46">
         <v>43982</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="50">
         <v>43983</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="44">
         <v>43987</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="50">
         <v>43983</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="44">
         <v>43987</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="51">
         <v>43983</v>
       </c>
       <c r="D40" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="46">
         <v>43987</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="51">
         <v>43983</v>
       </c>
       <c r="D41" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="46">
         <v>43987</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="51">
         <v>43983</v>
       </c>
       <c r="D42" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="46">
         <v>43987</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="51">
         <v>43983</v>
       </c>
       <c r="D43" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="46">
         <v>43987</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="51">
         <v>43983</v>
       </c>
       <c r="D44" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="46">
         <v>43989</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="51">
         <v>43983</v>
       </c>
       <c r="D45" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="46">
         <v>43989</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="50">
         <v>43983</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="44">
         <v>43989</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="51">
         <v>43983</v>
       </c>
       <c r="D47" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="46">
         <v>43989</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="51">
         <v>43990</v>
       </c>
       <c r="D48" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="46">
         <v>43996</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="51">
         <v>43990</v>
       </c>
       <c r="D49" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="46">
         <v>43996</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="51">
         <v>43990</v>
       </c>
       <c r="D50" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="46">
         <v>43996</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="51">
         <v>43990</v>
       </c>
       <c r="D51" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="46">
         <v>43996</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="56">
+      <c r="C52" s="51">
         <v>43997</v>
       </c>
       <c r="D52" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="46">
         <v>44002</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="51">
         <v>43997</v>
       </c>
       <c r="D53" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="46">
         <v>44002</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="56">
+      <c r="C54" s="51">
         <v>43997</v>
       </c>
       <c r="D54" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="46">
         <v>44002</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C55" s="51">
         <v>43997</v>
       </c>
       <c r="D55" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="46">
         <v>44008</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="51">
         <v>44003</v>
       </c>
       <c r="D56" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="46">
         <v>44009</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="56">
+      <c r="C57" s="51">
         <v>44003</v>
       </c>
       <c r="D57" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="46">
         <v>44009</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="51">
         <v>44003</v>
       </c>
       <c r="D58" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="46">
         <v>44009</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="18" thickBot="1">
-      <c r="B59" s="67" t="s">
+    <row r="59" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B59" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="52">
         <v>44008</v>
       </c>
-      <c r="D59" s="58">
+      <c r="D59" s="53">
         <v>2</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="54">
         <v>44010</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5419,4 +6341,891 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE6B18B-FE23-4248-A558-4F1C326B3D78}">
+  <dimension ref="B1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="1.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="37">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="39">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B5" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="41">
+        <f>C4-C3</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="42">
+        <v>43929</v>
+      </c>
+      <c r="D9" s="43">
+        <f>E9-C9</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="44">
+        <v>43939</v>
+      </c>
+      <c r="G9">
+        <f>SMALL(C9:C60,1)</f>
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="45">
+        <v>43930</v>
+      </c>
+      <c r="D10" s="43">
+        <f t="shared" ref="D10:D59" si="0">E10-C10</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="46">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="42">
+        <v>43931</v>
+      </c>
+      <c r="D11" s="43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="44">
+        <v>43941</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="47">
+        <v>43942</v>
+      </c>
+      <c r="D12" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="46">
+        <v>43947</v>
+      </c>
+      <c r="G12">
+        <f>LARGE(E9:E60,1)</f>
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="49">
+        <v>43941</v>
+      </c>
+      <c r="D13" s="48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="46">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="49">
+        <v>43929</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E14" s="46">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="49">
+        <v>43948</v>
+      </c>
+      <c r="D15" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="44">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="50">
+        <v>43950</v>
+      </c>
+      <c r="D16" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="44">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="51">
+        <v>43952</v>
+      </c>
+      <c r="D17" s="33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="46">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="51">
+        <v>43954</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="46">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="51">
+        <v>43958</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="46">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="51">
+        <v>43969</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="46">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="51">
+        <v>43969</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="46">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="46">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B23" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D23" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="46">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="46">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="50">
+        <v>43983</v>
+      </c>
+      <c r="D25" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="44">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="50">
+        <v>43983</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="44">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D27" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="46">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="51">
+        <v>43997</v>
+      </c>
+      <c r="D28" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="46">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B29" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="51">
+        <v>43997</v>
+      </c>
+      <c r="D29" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E29" s="46">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="51">
+        <v>43997</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E30" s="46">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="51">
+        <v>43997</v>
+      </c>
+      <c r="D31" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E31" s="46">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="51">
+        <v>44003</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E32" s="46">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="51">
+        <v>44003</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="46">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="51">
+        <v>44003</v>
+      </c>
+      <c r="D34" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="46">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="51">
+        <v>43929</v>
+      </c>
+      <c r="D35" s="33">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E35" s="46">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="51">
+        <v>43962</v>
+      </c>
+      <c r="D36" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E36" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="51">
+        <v>43962</v>
+      </c>
+      <c r="D37" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="51">
+        <v>43962</v>
+      </c>
+      <c r="D38" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="51">
+        <v>43962</v>
+      </c>
+      <c r="D39" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E39" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="51">
+        <v>43962</v>
+      </c>
+      <c r="D40" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="50">
+        <v>43962</v>
+      </c>
+      <c r="D41" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="44">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="51">
+        <v>43962</v>
+      </c>
+      <c r="D42" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="51">
+        <v>43969</v>
+      </c>
+      <c r="D43" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E43" s="46">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="51">
+        <v>43969</v>
+      </c>
+      <c r="D44" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E44" s="46">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D45" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="46">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="50">
+        <v>43976</v>
+      </c>
+      <c r="D46" s="48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="44">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D47" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E47" s="46">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D48" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E48" s="46">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D49" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E49" s="46">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D50" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E50" s="46">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D51" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="46">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D52" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E52" s="46">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D53" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E53" s="46">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="50">
+        <v>43983</v>
+      </c>
+      <c r="D54" s="48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E54" s="44">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="51">
+        <v>43983</v>
+      </c>
+      <c r="D55" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E55" s="46">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="51">
+        <v>43990</v>
+      </c>
+      <c r="D56" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E56" s="46">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="51">
+        <v>43990</v>
+      </c>
+      <c r="D57" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E57" s="46">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="51">
+        <v>43990</v>
+      </c>
+      <c r="D58" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E58" s="46">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="51">
+        <v>43990</v>
+      </c>
+      <c r="D59" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E59" s="46">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B60" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="52">
+        <v>44008</v>
+      </c>
+      <c r="D60" s="53">
+        <v>2</v>
+      </c>
+      <c r="E60" s="54">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596C6C6B-8A4D-455D-809F-DE8AC94FA272}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>